--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK298"/>
+  <dimension ref="A1:BK300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT6" t="n">
         <v>1.94</v>
@@ -2121,7 +2121,7 @@
         <v>1.59</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.44</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AT18" t="n">
         <v>0.82</v>
@@ -5775,7 +5775,7 @@
         <v>1.94</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU26" t="n">
         <v>1.56</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AT32" t="n">
         <v>1.47</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT34" t="n">
         <v>1.41</v>
@@ -7602,7 +7602,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU35" t="n">
         <v>1.92</v>
@@ -9429,7 +9429,7 @@
         <v>1.59</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU44" t="n">
         <v>1.38</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AT46" t="n">
         <v>1.94</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT49" t="n">
         <v>0.44</v>
@@ -10647,7 +10647,7 @@
         <v>1.94</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU50" t="n">
         <v>1.72</v>
@@ -13083,7 +13083,7 @@
         <v>2.41</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU62" t="n">
         <v>1.87</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT65" t="n">
         <v>1.38</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AT67" t="n">
         <v>1.35</v>
@@ -14910,7 +14910,7 @@
         <v>1.82</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU71" t="n">
         <v>1.89</v>
@@ -16331,7 +16331,7 @@
         <v>1.56</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU78" t="n">
         <v>1.89</v>
@@ -18767,7 +18767,7 @@
         <v>1.06</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU90" t="n">
         <v>1.38</v>
@@ -18967,7 +18967,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT91" t="n">
         <v>0.75</v>
@@ -19779,7 +19779,7 @@
         <v>0.8</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AT95" t="n">
         <v>0.5</v>
@@ -19985,7 +19985,7 @@
         <v>2.06</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU96" t="n">
         <v>2.23</v>
@@ -21606,7 +21606,7 @@
         <v>1.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT104" t="n">
         <v>1.47</v>
@@ -22015,7 +22015,7 @@
         <v>1.94</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU106" t="n">
         <v>1.67</v>
@@ -23233,7 +23233,7 @@
         <v>2.53</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU112" t="n">
         <v>2.2</v>
@@ -23433,7 +23433,7 @@
         <v>0.5</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AT113" t="n">
         <v>1</v>
@@ -24857,7 +24857,7 @@
         <v>1.06</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU120" t="n">
         <v>1.4</v>
@@ -25260,7 +25260,7 @@
         <v>1.57</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT122" t="n">
         <v>1.29</v>
@@ -27696,7 +27696,7 @@
         <v>1.86</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AT134" t="n">
         <v>1.94</v>
@@ -28105,7 +28105,7 @@
         <v>1.56</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU136" t="n">
         <v>1.62</v>
@@ -28711,7 +28711,7 @@
         <v>1.5</v>
       </c>
       <c r="AS139" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AT139" t="n">
         <v>1.18</v>
@@ -29526,7 +29526,7 @@
         <v>2.41</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU143" t="n">
         <v>1.66</v>
@@ -30538,7 +30538,7 @@
         <v>0.88</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT148" t="n">
         <v>1</v>
@@ -31150,7 +31150,7 @@
         <v>2.06</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU151" t="n">
         <v>2.16</v>
@@ -31959,7 +31959,7 @@
         <v>0.78</v>
       </c>
       <c r="AS155" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AT155" t="n">
         <v>0.75</v>
@@ -33380,7 +33380,7 @@
         <v>0.75</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT162" t="n">
         <v>0.82</v>
@@ -33586,7 +33586,7 @@
         <v>1.65</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU163" t="n">
         <v>1.73</v>
@@ -34195,7 +34195,7 @@
         <v>1.82</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU166" t="n">
         <v>1.84</v>
@@ -35816,7 +35816,7 @@
         <v>1.44</v>
       </c>
       <c r="AS174" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AT174" t="n">
         <v>1.38</v>
@@ -37037,7 +37037,7 @@
         <v>2.41</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU180" t="n">
         <v>1.77</v>
@@ -38255,7 +38255,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU186" t="n">
         <v>1.64</v>
@@ -39064,7 +39064,7 @@
         <v>1.44</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT190" t="n">
         <v>1.35</v>
@@ -39270,7 +39270,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU191" t="n">
         <v>1.46</v>
@@ -40282,7 +40282,7 @@
         <v>1.1</v>
       </c>
       <c r="AS196" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AT196" t="n">
         <v>1.41</v>
@@ -40688,7 +40688,7 @@
         <v>1.4</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT198" t="n">
         <v>1.47</v>
@@ -41909,7 +41909,7 @@
         <v>1.38</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU204" t="n">
         <v>1.75</v>
@@ -43330,7 +43330,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU211" t="n">
         <v>1.65</v>
@@ -43530,7 +43530,7 @@
         <v>1.33</v>
       </c>
       <c r="AS212" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AT212" t="n">
         <v>1.29</v>
@@ -43733,7 +43733,7 @@
         <v>0.91</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT213" t="n">
         <v>0.82</v>
@@ -45766,7 +45766,7 @@
         <v>2.53</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU223" t="n">
         <v>2.05</v>
@@ -47184,7 +47184,7 @@
         <v>0.75</v>
       </c>
       <c r="AS230" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AT230" t="n">
         <v>0.82</v>
@@ -48199,10 +48199,10 @@
         <v>1.25</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU235" t="n">
         <v>1.41</v>
@@ -48605,7 +48605,7 @@
         <v>0.33</v>
       </c>
       <c r="AS237" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AT237" t="n">
         <v>0.44</v>
@@ -49623,7 +49623,7 @@
         <v>1.44</v>
       </c>
       <c r="AT242" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU242" t="n">
         <v>1.74</v>
@@ -51044,7 +51044,7 @@
         <v>1.94</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU249" t="n">
         <v>1.56</v>
@@ -51244,7 +51244,7 @@
         <v>2.23</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT250" t="n">
         <v>1.94</v>
@@ -52868,10 +52868,10 @@
         <v>1.57</v>
       </c>
       <c r="AS258" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU258" t="n">
         <v>1.15</v>
@@ -54289,7 +54289,7 @@
         <v>0.93</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT265" t="n">
         <v>0.76</v>
@@ -54495,7 +54495,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT266" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU266" t="n">
         <v>1.62</v>
@@ -55713,7 +55713,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT272" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU272" t="n">
         <v>1.49</v>
@@ -56116,7 +56116,7 @@
         <v>1.4</v>
       </c>
       <c r="AS274" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AT274" t="n">
         <v>1.47</v>
@@ -58555,7 +58555,7 @@
         <v>1.38</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU286" t="n">
         <v>1.8</v>
@@ -59161,7 +59161,7 @@
         <v>0.53</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT289" t="n">
         <v>0.5</v>
@@ -61043,6 +61043,412 @@
       </c>
       <c r="BK298" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="n">
+        <v>2547498</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E299" s="2" t="n">
+        <v>45038.55208333334</v>
+      </c>
+      <c r="F299" t="n">
+        <v>34</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>RFC Seraing</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>KVC Westerlo</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>1</v>
+      </c>
+      <c r="J299" t="n">
+        <v>1</v>
+      </c>
+      <c r="K299" t="n">
+        <v>2</v>
+      </c>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="n">
+        <v>1</v>
+      </c>
+      <c r="N299" t="n">
+        <v>2</v>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q299" t="n">
+        <v>6</v>
+      </c>
+      <c r="R299" t="n">
+        <v>4</v>
+      </c>
+      <c r="S299" t="n">
+        <v>10</v>
+      </c>
+      <c r="T299" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="U299" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="V299" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W299" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X299" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Z299" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA299" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB299" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC299" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AD299" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE299" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AF299" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG299" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH299" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI299" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AJ299" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK299" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL299" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM299" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AN299" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AO299" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP299" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ299" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR299" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS299" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AT299" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AU299" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AV299" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW299" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX299" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AY299" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ299" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BA299" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB299" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC299" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD299" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE299" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF299" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG299" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH299" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI299" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ299" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK299" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="n">
+        <v>2547500</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E300" s="2" t="n">
+        <v>45039.35416666666</v>
+      </c>
+      <c r="F300" t="n">
+        <v>34</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Sint-Truiden</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Royal Antwerp FC</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M300" t="n">
+        <v>1</v>
+      </c>
+      <c r="N300" t="n">
+        <v>1</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q300" t="n">
+        <v>6</v>
+      </c>
+      <c r="R300" t="n">
+        <v>2</v>
+      </c>
+      <c r="S300" t="n">
+        <v>8</v>
+      </c>
+      <c r="T300" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U300" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V300" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W300" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X300" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC300" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AD300" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE300" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF300" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG300" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH300" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI300" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AJ300" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK300" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL300" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM300" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN300" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO300" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP300" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ300" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR300" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS300" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT300" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AU300" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV300" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW300" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX300" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AY300" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ300" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA300" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB300" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC300" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD300" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE300" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF300" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG300" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH300" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI300" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ300" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK300" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK307"/>
+  <dimension ref="A1:BK308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3136,7 +3136,7 @@
         <v>1.53</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT15" t="n">
         <v>1.18</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU26" t="n">
         <v>1.56</v>
@@ -9429,7 +9429,7 @@
         <v>1.59</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU44" t="n">
         <v>1.38</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT50" t="n">
         <v>1.82</v>
@@ -13083,7 +13083,7 @@
         <v>2.41</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU62" t="n">
         <v>1.87</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT73" t="n">
         <v>0.82</v>
@@ -16331,7 +16331,7 @@
         <v>1.53</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU78" t="n">
         <v>1.89</v>
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT89" t="n">
         <v>1.12</v>
@@ -19985,7 +19985,7 @@
         <v>2.12</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU96" t="n">
         <v>2.23</v>
@@ -22215,7 +22215,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT107" t="n">
         <v>0.59</v>
@@ -23233,7 +23233,7 @@
         <v>2.53</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU112" t="n">
         <v>2.2</v>
@@ -24857,7 +24857,7 @@
         <v>1</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU120" t="n">
         <v>1.4</v>
@@ -25869,7 +25869,7 @@
         <v>1.43</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT125" t="n">
         <v>0.76</v>
@@ -29320,7 +29320,7 @@
         <v>1.86</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT142" t="n">
         <v>1.35</v>
@@ -29526,7 +29526,7 @@
         <v>2.41</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU143" t="n">
         <v>1.66</v>
@@ -32162,7 +32162,7 @@
         <v>1.5</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT156" t="n">
         <v>1.29</v>
@@ -34398,7 +34398,7 @@
         <v>1.82</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU167" t="n">
         <v>1.84</v>
@@ -36831,7 +36831,7 @@
         <v>1.11</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT179" t="n">
         <v>0.82</v>
@@ -38861,7 +38861,7 @@
         <v>1.33</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT189" t="n">
         <v>1.47</v>
@@ -39270,7 +39270,7 @@
         <v>0.76</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU191" t="n">
         <v>1.46</v>
@@ -43533,7 +43533,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU212" t="n">
         <v>1.65</v>
@@ -44342,7 +44342,7 @@
         <v>2.27</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT216" t="n">
         <v>1.88</v>
@@ -47793,7 +47793,7 @@
         <v>1.23</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT233" t="n">
         <v>1.29</v>
@@ -48202,7 +48202,7 @@
         <v>1.29</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU235" t="n">
         <v>1.41</v>
@@ -51044,7 +51044,7 @@
         <v>1.94</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU249" t="n">
         <v>1.56</v>
@@ -51650,7 +51650,7 @@
         <v>1.38</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT252" t="n">
         <v>1.41</v>
@@ -54292,7 +54292,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU265" t="n">
         <v>1.62</v>
@@ -55507,7 +55507,7 @@
         <v>0.79</v>
       </c>
       <c r="AS271" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT271" t="n">
         <v>0.71</v>
@@ -58349,7 +58349,7 @@
         <v>2</v>
       </c>
       <c r="AS285" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT285" t="n">
         <v>2</v>
@@ -58555,7 +58555,7 @@
         <v>1.29</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU286" t="n">
         <v>1.8</v>
@@ -61194,7 +61194,7 @@
         <v>0.41</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU299" t="n">
         <v>1.09</v>
@@ -62409,7 +62409,7 @@
         <v>0.5</v>
       </c>
       <c r="AS305" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT305" t="n">
         <v>0.65</v>
@@ -62870,6 +62870,209 @@
       </c>
       <c r="BK307" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" t="n">
+        <v>5962947</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E308" s="2" t="n">
+        <v>45044.65625</v>
+      </c>
+      <c r="F308" t="n">
+        <v>1</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>KAA Gent</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>KVC Westerlo</t>
+        </is>
+      </c>
+      <c r="I308" t="n">
+        <v>0</v>
+      </c>
+      <c r="J308" t="n">
+        <v>1</v>
+      </c>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="n">
+        <v>3</v>
+      </c>
+      <c r="M308" t="n">
+        <v>1</v>
+      </c>
+      <c r="N308" t="n">
+        <v>4</v>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>['52', '55', '88']</t>
+        </is>
+      </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q308" t="n">
+        <v>9</v>
+      </c>
+      <c r="R308" t="n">
+        <v>5</v>
+      </c>
+      <c r="S308" t="n">
+        <v>14</v>
+      </c>
+      <c r="T308" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U308" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V308" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W308" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X308" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z308" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA308" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB308" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC308" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AD308" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AE308" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="AF308" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG308" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH308" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI308" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ308" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK308" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL308" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM308" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AN308" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO308" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP308" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AQ308" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR308" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS308" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT308" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AU308" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV308" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW308" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX308" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY308" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ308" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA308" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB308" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC308" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD308" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE308" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BF308" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG308" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH308" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI308" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ308" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK308" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK308"/>
+  <dimension ref="A1:BK309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT12" t="n">
         <v>1.41</v>
@@ -3745,7 +3745,7 @@
         <v>2.53</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>1.65</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU30" t="n">
         <v>2.43</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT31" t="n">
         <v>0.59</v>
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT47" t="n">
         <v>0.82</v>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU51" t="n">
         <v>1.45</v>
@@ -13692,7 +13692,7 @@
         <v>1.29</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU65" t="n">
         <v>1.42</v>
@@ -14907,7 +14907,7 @@
         <v>3</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT71" t="n">
         <v>1.82</v>
@@ -15922,7 +15922,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT76" t="n">
         <v>0.65</v>
@@ -20594,7 +20594,7 @@
         <v>1.53</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU99" t="n">
         <v>1.74</v>
@@ -21606,7 +21606,7 @@
         <v>1.2</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT104" t="n">
         <v>0.71</v>
@@ -24045,7 +24045,7 @@
         <v>1.59</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU116" t="n">
         <v>1.61</v>
@@ -24651,7 +24651,7 @@
         <v>1.5</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT119" t="n">
         <v>1.47</v>
@@ -26684,7 +26684,7 @@
         <v>0.76</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU129" t="n">
         <v>1.37</v>
@@ -28914,7 +28914,7 @@
         <v>1.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT140" t="n">
         <v>1.29</v>
@@ -29120,7 +29120,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU141" t="n">
         <v>1.86</v>
@@ -32165,7 +32165,7 @@
         <v>1.89</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU156" t="n">
         <v>1.8</v>
@@ -34395,7 +34395,7 @@
         <v>1.11</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT167" t="n">
         <v>1.28</v>
@@ -35819,7 +35819,7 @@
         <v>0.41</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU174" t="n">
         <v>1.17</v>
@@ -38252,7 +38252,7 @@
         <v>2.2</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT186" t="n">
         <v>2</v>
@@ -40082,7 +40082,7 @@
         <v>2.41</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU195" t="n">
         <v>1.72</v>
@@ -42109,7 +42109,7 @@
         <v>1.55</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT205" t="n">
         <v>1.47</v>
@@ -43124,10 +43124,10 @@
         <v>1.27</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU210" t="n">
         <v>1.69</v>
@@ -47390,7 +47390,7 @@
         <v>2.41</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU231" t="n">
         <v>1.85</v>
@@ -47590,7 +47590,7 @@
         <v>1.5</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT232" t="n">
         <v>1.35</v>
@@ -49826,7 +49826,7 @@
         <v>1.29</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU243" t="n">
         <v>1.74</v>
@@ -50838,7 +50838,7 @@
         <v>1</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT248" t="n">
         <v>0.76</v>
@@ -53074,7 +53074,7 @@
         <v>2.12</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU259" t="n">
         <v>1.95</v>
@@ -53883,7 +53883,7 @@
         <v>2.14</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT263" t="n">
         <v>1.88</v>
@@ -55913,7 +55913,7 @@
         <v>0.93</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT273" t="n">
         <v>0.82</v>
@@ -56525,7 +56525,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU276" t="n">
         <v>1.67</v>
@@ -59770,7 +59770,7 @@
         <v>1.25</v>
       </c>
       <c r="AS292" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT292" t="n">
         <v>1.18</v>
@@ -62209,7 +62209,7 @@
         <v>1.53</v>
       </c>
       <c r="AT304" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU304" t="n">
         <v>1.71</v>
@@ -63073,6 +63073,209 @@
       </c>
       <c r="BK308" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B309" t="n">
+        <v>5962948</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E309" s="2" t="n">
+        <v>45045.55208333334</v>
+      </c>
+      <c r="F309" t="n">
+        <v>1</v>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Standard Liège</t>
+        </is>
+      </c>
+      <c r="I309" t="n">
+        <v>0</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0</v>
+      </c>
+      <c r="L309" t="n">
+        <v>0</v>
+      </c>
+      <c r="M309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N309" t="n">
+        <v>0</v>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q309" t="n">
+        <v>6</v>
+      </c>
+      <c r="R309" t="n">
+        <v>3</v>
+      </c>
+      <c r="S309" t="n">
+        <v>9</v>
+      </c>
+      <c r="T309" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U309" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V309" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W309" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X309" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z309" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA309" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB309" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC309" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD309" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE309" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF309" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG309" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH309" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI309" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ309" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK309" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL309" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM309" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN309" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO309" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP309" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ309" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR309" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS309" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT309" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AU309" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV309" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW309" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX309" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY309" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ309" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA309" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB309" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC309" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD309" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE309" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF309" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG309" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH309" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI309" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ309" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK309" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK309"/>
+  <dimension ref="A1:BK310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT16" t="n">
         <v>1.28</v>
@@ -3948,7 +3948,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT21" t="n">
         <v>0.71</v>
@@ -7805,7 +7805,7 @@
         <v>1.53</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU36" t="n">
         <v>1.75</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT40" t="n">
         <v>1.12</v>
@@ -9632,7 +9632,7 @@
         <v>1.53</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU45" t="n">
         <v>1.68</v>
@@ -12065,7 +12065,7 @@
         <v>1.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT57" t="n">
         <v>1.18</v>
@@ -14301,7 +14301,7 @@
         <v>0.41</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU68" t="n">
         <v>1.41</v>
@@ -16531,7 +16531,7 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT79" t="n">
         <v>1.47</v>
@@ -16940,7 +16940,7 @@
         <v>1.94</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU81" t="n">
         <v>1.72</v>
@@ -19373,7 +19373,7 @@
         <v>1.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT93" t="n">
         <v>0.82</v>
@@ -22421,7 +22421,7 @@
         <v>1.29</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU108" t="n">
         <v>1.82</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT112" t="n">
         <v>1.28</v>
@@ -25466,7 +25466,7 @@
         <v>2.41</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU123" t="n">
         <v>1.75</v>
@@ -26478,7 +26478,7 @@
         <v>0.67</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT128" t="n">
         <v>0.59</v>
@@ -28305,7 +28305,7 @@
         <v>1.29</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT137" t="n">
         <v>1.47</v>
@@ -29323,7 +29323,7 @@
         <v>1.89</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU142" t="n">
         <v>1.84</v>
@@ -34801,10 +34801,10 @@
         <v>1.63</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU169" t="n">
         <v>2.18</v>
@@ -36425,7 +36425,7 @@
         <v>0.67</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT177" t="n">
         <v>0.82</v>
@@ -39067,7 +39067,7 @@
         <v>1.29</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU190" t="n">
         <v>1.55</v>
@@ -42315,7 +42315,7 @@
         <v>0.76</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU206" t="n">
         <v>1.47</v>
@@ -42515,7 +42515,7 @@
         <v>1.18</v>
       </c>
       <c r="AS207" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT207" t="n">
         <v>0.76</v>
@@ -43939,7 +43939,7 @@
         <v>2.41</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU214" t="n">
         <v>1.73</v>
@@ -45763,7 +45763,7 @@
         <v>1.5</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT223" t="n">
         <v>1.82</v>
@@ -47593,7 +47593,7 @@
         <v>1.78</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU232" t="n">
         <v>1.71</v>
@@ -49011,7 +49011,7 @@
         <v>0.54</v>
       </c>
       <c r="AS239" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT239" t="n">
         <v>0.65</v>
@@ -50232,7 +50232,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU245" t="n">
         <v>1.62</v>
@@ -53477,7 +53477,7 @@
         <v>1.93</v>
       </c>
       <c r="AS261" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT261" t="n">
         <v>2</v>
@@ -54089,7 +54089,7 @@
         <v>1</v>
       </c>
       <c r="AT264" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU264" t="n">
         <v>1.51</v>
@@ -56725,7 +56725,7 @@
         <v>1.27</v>
       </c>
       <c r="AS277" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT277" t="n">
         <v>1.29</v>
@@ -57134,7 +57134,7 @@
         <v>1.59</v>
       </c>
       <c r="AT279" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU279" t="n">
         <v>1.84</v>
@@ -60179,7 +60179,7 @@
         <v>1.65</v>
       </c>
       <c r="AT294" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU294" t="n">
         <v>1.72</v>
@@ -60379,7 +60379,7 @@
         <v>1.5</v>
       </c>
       <c r="AS295" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT295" t="n">
         <v>1.41</v>
@@ -63276,6 +63276,209 @@
       </c>
       <c r="BK309" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" t="n">
+        <v>5962949</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E310" s="2" t="n">
+        <v>45046.5625</v>
+      </c>
+      <c r="F310" t="n">
+        <v>1</v>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>KRC Genk</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="I310" t="n">
+        <v>1</v>
+      </c>
+      <c r="J310" t="n">
+        <v>1</v>
+      </c>
+      <c r="K310" t="n">
+        <v>2</v>
+      </c>
+      <c r="L310" t="n">
+        <v>3</v>
+      </c>
+      <c r="M310" t="n">
+        <v>1</v>
+      </c>
+      <c r="N310" t="n">
+        <v>4</v>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>['18', '56', '83']</t>
+        </is>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q310" t="n">
+        <v>3</v>
+      </c>
+      <c r="R310" t="n">
+        <v>5</v>
+      </c>
+      <c r="S310" t="n">
+        <v>8</v>
+      </c>
+      <c r="T310" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U310" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V310" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W310" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X310" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z310" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA310" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB310" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC310" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD310" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE310" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF310" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG310" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="AH310" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI310" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="AJ310" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK310" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL310" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM310" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AN310" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO310" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP310" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ310" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AR310" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS310" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AT310" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AU310" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV310" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW310" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX310" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY310" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ310" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA310" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB310" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC310" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD310" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE310" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF310" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG310" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH310" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI310" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ310" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK310" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK310"/>
+  <dimension ref="A1:BK311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>1.59</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AT11" t="n">
         <v>1.47</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AT33" t="n">
         <v>0.82</v>
@@ -7602,7 +7602,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU35" t="n">
         <v>1.92</v>
@@ -10647,7 +10647,7 @@
         <v>1.89</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU50" t="n">
         <v>1.72</v>
@@ -11050,7 +11050,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AT52" t="n">
         <v>1.41</v>
@@ -14910,7 +14910,7 @@
         <v>1.78</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU71" t="n">
         <v>1.89</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AT72" t="n">
         <v>1.88</v>
@@ -18767,7 +18767,7 @@
         <v>1</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU90" t="n">
         <v>1.38</v>
@@ -20794,7 +20794,7 @@
         <v>0.6</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AT100" t="n">
         <v>1.12</v>
@@ -22015,7 +22015,7 @@
         <v>1.94</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU106" t="n">
         <v>1.67</v>
@@ -23636,7 +23636,7 @@
         <v>1.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AT114" t="n">
         <v>1.47</v>
@@ -25463,7 +25463,7 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AT123" t="n">
         <v>1.28</v>
@@ -28105,7 +28105,7 @@
         <v>1.53</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU136" t="n">
         <v>1.62</v>
@@ -29523,7 +29523,7 @@
         <v>1.13</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AT143" t="n">
         <v>1.28</v>
@@ -31150,7 +31150,7 @@
         <v>2.12</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU151" t="n">
         <v>2.16</v>
@@ -32771,7 +32771,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AT159" t="n">
         <v>0.65</v>
@@ -33586,7 +33586,7 @@
         <v>1.65</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU163" t="n">
         <v>1.73</v>
@@ -37034,10 +37034,10 @@
         <v>1.56</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU180" t="n">
         <v>1.77</v>
@@ -38052,7 +38052,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU185" t="n">
         <v>1.64</v>
@@ -39876,7 +39876,7 @@
         <v>1.45</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AT194" t="n">
         <v>1.29</v>
@@ -41909,7 +41909,7 @@
         <v>1.29</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU204" t="n">
         <v>1.75</v>
@@ -44545,7 +44545,7 @@
         <v>0.82</v>
       </c>
       <c r="AS217" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AT217" t="n">
         <v>0.82</v>
@@ -45766,7 +45766,7 @@
         <v>2.56</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU223" t="n">
         <v>2.05</v>
@@ -47387,7 +47387,7 @@
         <v>1.25</v>
       </c>
       <c r="AS231" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AT231" t="n">
         <v>1.28</v>
@@ -49623,7 +49623,7 @@
         <v>1.53</v>
       </c>
       <c r="AT242" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU242" t="n">
         <v>1.74</v>
@@ -51853,7 +51853,7 @@
         <v>0.85</v>
       </c>
       <c r="AS253" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AT253" t="n">
         <v>0.71</v>
@@ -52871,7 +52871,7 @@
         <v>0.41</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU258" t="n">
         <v>1.15</v>
@@ -55304,7 +55304,7 @@
         <v>0.5</v>
       </c>
       <c r="AS270" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AT270" t="n">
         <v>0.59</v>
@@ -55713,7 +55713,7 @@
         <v>0.76</v>
       </c>
       <c r="AT272" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU272" t="n">
         <v>1.49</v>
@@ -57334,7 +57334,7 @@
         <v>1.33</v>
       </c>
       <c r="AS280" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AT280" t="n">
         <v>1.18</v>
@@ -60988,7 +60988,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS298" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AT298" t="n">
         <v>0.76</v>
@@ -61397,7 +61397,7 @@
         <v>1.29</v>
       </c>
       <c r="AT300" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU300" t="n">
         <v>1.41</v>
@@ -63479,6 +63479,209 @@
       </c>
       <c r="BK310" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="n">
+        <v>5962950</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E311" s="2" t="n">
+        <v>45049.64583333334</v>
+      </c>
+      <c r="F311" t="n">
+        <v>1</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Union Saint-Gilloise</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Royal Antwerp FC</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" t="n">
+        <v>2</v>
+      </c>
+      <c r="K311" t="n">
+        <v>2</v>
+      </c>
+      <c r="L311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M311" t="n">
+        <v>2</v>
+      </c>
+      <c r="N311" t="n">
+        <v>2</v>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>['20', '30']</t>
+        </is>
+      </c>
+      <c r="Q311" t="n">
+        <v>3</v>
+      </c>
+      <c r="R311" t="n">
+        <v>3</v>
+      </c>
+      <c r="S311" t="n">
+        <v>6</v>
+      </c>
+      <c r="T311" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U311" t="n">
+        <v>2</v>
+      </c>
+      <c r="V311" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W311" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X311" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA311" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB311" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC311" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD311" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE311" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF311" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG311" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH311" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI311" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ311" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK311" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL311" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM311" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN311" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO311" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP311" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ311" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AR311" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS311" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AT311" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AU311" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV311" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW311" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX311" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY311" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ311" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA311" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB311" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC311" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD311" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE311" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF311" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG311" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH311" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI311" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ311" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK311" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK311"/>
+  <dimension ref="A1:BK314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.29</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>1.88</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
         <v>0.82</v>
@@ -5369,7 +5369,7 @@
         <v>1.59</v>
       </c>
       <c r="AT24" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU24" t="n">
         <v>1.52</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU25" t="n">
         <v>1.02</v>
@@ -6384,7 +6384,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU29" t="n">
         <v>1.58</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT30" t="n">
         <v>1.28</v>
@@ -8617,7 +8617,7 @@
         <v>2.56</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU40" t="n">
         <v>2.52</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT41" t="n">
         <v>0.82</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT43" t="n">
         <v>1.29</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT53" t="n">
         <v>0.71</v>
@@ -11459,7 +11459,7 @@
         <v>2.41</v>
       </c>
       <c r="AT54" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU54" t="n">
         <v>2</v>
@@ -11662,7 +11662,7 @@
         <v>1.29</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU55" t="n">
         <v>1.58</v>
@@ -11862,10 +11862,10 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU56" t="n">
         <v>2.27</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT60" t="n">
         <v>0.65</v>
@@ -13286,7 +13286,7 @@
         <v>1.53</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU63" t="n">
         <v>1.89</v>
@@ -13489,7 +13489,7 @@
         <v>0.76</v>
       </c>
       <c r="AT64" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU64" t="n">
         <v>1.71</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT70" t="n">
         <v>1.41</v>
@@ -16534,7 +16534,7 @@
         <v>2.56</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU79" t="n">
         <v>2.11</v>
@@ -16737,7 +16737,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT80" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU80" t="n">
         <v>1.97</v>
@@ -16937,7 +16937,7 @@
         <v>2.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT81" t="n">
         <v>1.28</v>
@@ -17343,7 +17343,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT83" t="n">
         <v>0.76</v>
@@ -17549,7 +17549,7 @@
         <v>1.53</v>
       </c>
       <c r="AT84" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU84" t="n">
         <v>1.57</v>
@@ -17749,7 +17749,7 @@
         <v>0.5</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT85" t="n">
         <v>0.82</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT87" t="n">
         <v>0.59</v>
@@ -18564,7 +18564,7 @@
         <v>1.89</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU89" t="n">
         <v>1.81</v>
@@ -19982,7 +19982,7 @@
         <v>0.6</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT96" t="n">
         <v>1.28</v>
@@ -20391,7 +20391,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU98" t="n">
         <v>1.83</v>
@@ -20797,7 +20797,7 @@
         <v>2.28</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU100" t="n">
         <v>1.79</v>
@@ -20997,7 +20997,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT101" t="n">
         <v>0.76</v>
@@ -22012,7 +22012,7 @@
         <v>2.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT106" t="n">
         <v>1.89</v>
@@ -22624,7 +22624,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT109" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU109" t="n">
         <v>1.51</v>
@@ -23436,7 +23436,7 @@
         <v>0.41</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU113" t="n">
         <v>1.28</v>
@@ -23639,7 +23639,7 @@
         <v>2.28</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU114" t="n">
         <v>1.74</v>
@@ -23839,7 +23839,7 @@
         <v>1.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT115" t="n">
         <v>1.18</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT126" t="n">
         <v>1.41</v>
@@ -26884,7 +26884,7 @@
         <v>1.29</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT130" t="n">
         <v>1.18</v>
@@ -27090,7 +27090,7 @@
         <v>1</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU131" t="n">
         <v>1.33</v>
@@ -27290,7 +27290,7 @@
         <v>0.71</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT132" t="n">
         <v>0.65</v>
@@ -27699,7 +27699,7 @@
         <v>0.41</v>
       </c>
       <c r="AT134" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU134" t="n">
         <v>1.23</v>
@@ -27902,7 +27902,7 @@
         <v>1.53</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU135" t="n">
         <v>1.61</v>
@@ -30335,7 +30335,7 @@
         <v>0.63</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT147" t="n">
         <v>0.65</v>
@@ -30744,7 +30744,7 @@
         <v>1.29</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU149" t="n">
         <v>1.59</v>
@@ -31147,7 +31147,7 @@
         <v>1.71</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT151" t="n">
         <v>1.89</v>
@@ -31350,10 +31350,10 @@
         <v>2</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT152" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU152" t="n">
         <v>1.57</v>
@@ -31759,7 +31759,7 @@
         <v>1</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU154" t="n">
         <v>1.39</v>
@@ -32368,7 +32368,7 @@
         <v>1.59</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU157" t="n">
         <v>1.8</v>
@@ -32568,7 +32568,7 @@
         <v>1.33</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT158" t="n">
         <v>1.29</v>
@@ -33583,7 +33583,7 @@
         <v>1.63</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT163" t="n">
         <v>1.89</v>
@@ -33786,7 +33786,7 @@
         <v>1.67</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT164" t="n">
         <v>1.18</v>
@@ -34601,7 +34601,7 @@
         <v>2.41</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU168" t="n">
         <v>1.72</v>
@@ -35210,7 +35210,7 @@
         <v>1.29</v>
       </c>
       <c r="AT171" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU171" t="n">
         <v>1.79</v>
@@ -35613,7 +35613,7 @@
         <v>1.3</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT173" t="n">
         <v>1.29</v>
@@ -36628,7 +36628,7 @@
         <v>1.11</v>
       </c>
       <c r="AS178" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT178" t="n">
         <v>1.41</v>
@@ -37240,7 +37240,7 @@
         <v>1.53</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU181" t="n">
         <v>1.52</v>
@@ -37643,7 +37643,7 @@
         <v>0.44</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT183" t="n">
         <v>0.59</v>
@@ -37846,7 +37846,7 @@
         <v>2.33</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT184" t="n">
         <v>1.88</v>
@@ -38255,7 +38255,7 @@
         <v>1.78</v>
       </c>
       <c r="AT186" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU186" t="n">
         <v>1.79</v>
@@ -39676,7 +39676,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU193" t="n">
         <v>1.67</v>
@@ -40485,7 +40485,7 @@
         <v>1.3</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT197" t="n">
         <v>1.47</v>
@@ -40691,7 +40691,7 @@
         <v>1.29</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU198" t="n">
         <v>1.54</v>
@@ -40891,7 +40891,7 @@
         <v>1</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT199" t="n">
         <v>0.71</v>
@@ -41094,7 +41094,7 @@
         <v>0.4</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT200" t="n">
         <v>0.59</v>
@@ -41706,7 +41706,7 @@
         <v>1.53</v>
       </c>
       <c r="AT203" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU203" t="n">
         <v>1.53</v>
@@ -42112,7 +42112,7 @@
         <v>1.78</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU205" t="n">
         <v>1.71</v>
@@ -44751,7 +44751,7 @@
         <v>1.53</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU218" t="n">
         <v>1.82</v>
@@ -44951,10 +44951,10 @@
         <v>2.17</v>
       </c>
       <c r="AS219" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT219" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU219" t="n">
         <v>2.04</v>
@@ -45357,10 +45357,10 @@
         <v>1.42</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU221" t="n">
         <v>1.79</v>
@@ -46169,7 +46169,7 @@
         <v>0.83</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT225" t="n">
         <v>0.82</v>
@@ -48811,7 +48811,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU238" t="n">
         <v>1.58</v>
@@ -49214,10 +49214,10 @@
         <v>2.08</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT240" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU240" t="n">
         <v>1.76</v>
@@ -49417,10 +49417,10 @@
         <v>1.38</v>
       </c>
       <c r="AS241" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU241" t="n">
         <v>1.97</v>
@@ -51041,7 +51041,7 @@
         <v>1.38</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT249" t="n">
         <v>1.28</v>
@@ -52462,7 +52462,7 @@
         <v>1</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT256" t="n">
         <v>0.82</v>
@@ -53071,7 +53071,7 @@
         <v>1.36</v>
       </c>
       <c r="AS259" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT259" t="n">
         <v>1.28</v>
@@ -53277,7 +53277,7 @@
         <v>0.76</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU260" t="n">
         <v>1.5</v>
@@ -53480,7 +53480,7 @@
         <v>2.56</v>
       </c>
       <c r="AT261" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU261" t="n">
         <v>1.98</v>
@@ -53683,7 +53683,7 @@
         <v>1.29</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU262" t="n">
         <v>1.77</v>
@@ -54695,7 +54695,7 @@
         <v>0.71</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT267" t="n">
         <v>0.82</v>
@@ -56116,7 +56116,7 @@
         <v>1.47</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT274" t="n">
         <v>1.47</v>
@@ -56322,7 +56322,7 @@
         <v>0.41</v>
       </c>
       <c r="AT275" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU275" t="n">
         <v>1.14</v>
@@ -57537,7 +57537,7 @@
         <v>0.87</v>
       </c>
       <c r="AS281" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT281" t="n">
         <v>0.76</v>
@@ -58352,7 +58352,7 @@
         <v>1.89</v>
       </c>
       <c r="AT285" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU285" t="n">
         <v>1.82</v>
@@ -58758,7 +58758,7 @@
         <v>2.41</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU287" t="n">
         <v>1.76</v>
@@ -58958,7 +58958,7 @@
         <v>2.07</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT288" t="n">
         <v>1.88</v>
@@ -59364,7 +59364,7 @@
         <v>1.56</v>
       </c>
       <c r="AS290" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT290" t="n">
         <v>1.47</v>
@@ -60176,7 +60176,7 @@
         <v>1.38</v>
       </c>
       <c r="AS294" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT294" t="n">
         <v>1.28</v>
@@ -60585,7 +60585,7 @@
         <v>1.59</v>
       </c>
       <c r="AT296" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU296" t="n">
         <v>1.76</v>
@@ -61803,7 +61803,7 @@
         <v>0.76</v>
       </c>
       <c r="AT302" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU302" t="n">
         <v>1.45</v>
@@ -62612,7 +62612,7 @@
         <v>0.75</v>
       </c>
       <c r="AS306" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AT306" t="n">
         <v>0.71</v>
@@ -62818,7 +62818,7 @@
         <v>1</v>
       </c>
       <c r="AT307" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU307" t="n">
         <v>1.49</v>
@@ -63682,6 +63682,615 @@
       </c>
       <c r="BK311" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="n">
+        <v>5962951</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E312" s="2" t="n">
+        <v>45052.55208333334</v>
+      </c>
+      <c r="F312" t="n">
+        <v>2</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Union Saint-Gilloise</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>0</v>
+      </c>
+      <c r="J312" t="n">
+        <v>1</v>
+      </c>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="n">
+        <v>2</v>
+      </c>
+      <c r="N312" t="n">
+        <v>3</v>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>['41', '46']</t>
+        </is>
+      </c>
+      <c r="Q312" t="n">
+        <v>10</v>
+      </c>
+      <c r="R312" t="n">
+        <v>2</v>
+      </c>
+      <c r="S312" t="n">
+        <v>12</v>
+      </c>
+      <c r="T312" t="n">
+        <v>3</v>
+      </c>
+      <c r="U312" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V312" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W312" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X312" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC312" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AD312" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AE312" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF312" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG312" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH312" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI312" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ312" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK312" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL312" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM312" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN312" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO312" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP312" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ312" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AR312" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS312" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT312" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AU312" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AV312" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW312" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AX312" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY312" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ312" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA312" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB312" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC312" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD312" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE312" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF312" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG312" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH312" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI312" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ312" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK312" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="n">
+        <v>5962952</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E313" s="2" t="n">
+        <v>45052.65625</v>
+      </c>
+      <c r="F313" t="n">
+        <v>2</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>Standard Liège</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>KAA Gent</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>0</v>
+      </c>
+      <c r="J313" t="n">
+        <v>1</v>
+      </c>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="n">
+        <v>2</v>
+      </c>
+      <c r="N313" t="n">
+        <v>3</v>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>['31', '61']</t>
+        </is>
+      </c>
+      <c r="Q313" t="n">
+        <v>6</v>
+      </c>
+      <c r="R313" t="n">
+        <v>3</v>
+      </c>
+      <c r="S313" t="n">
+        <v>9</v>
+      </c>
+      <c r="T313" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="U313" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V313" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="W313" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X313" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB313" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC313" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD313" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE313" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AF313" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG313" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="AH313" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI313" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ313" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK313" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL313" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM313" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AN313" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AO313" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP313" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ313" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AR313" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS313" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT313" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU313" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV313" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW313" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX313" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY313" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ313" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BA313" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB313" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC313" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD313" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE313" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF313" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG313" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH313" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI313" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ313" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK313" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="n">
+        <v>5962953</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E314" s="2" t="n">
+        <v>45053.35416666666</v>
+      </c>
+      <c r="F314" t="n">
+        <v>2</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>KVC Westerlo</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>1</v>
+      </c>
+      <c r="J314" t="n">
+        <v>4</v>
+      </c>
+      <c r="K314" t="n">
+        <v>5</v>
+      </c>
+      <c r="L314" t="n">
+        <v>3</v>
+      </c>
+      <c r="M314" t="n">
+        <v>5</v>
+      </c>
+      <c r="N314" t="n">
+        <v>8</v>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>['39', '56', '75']</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>['5', '18', '44', '45+4', '64']</t>
+        </is>
+      </c>
+      <c r="Q314" t="n">
+        <v>3</v>
+      </c>
+      <c r="R314" t="n">
+        <v>3</v>
+      </c>
+      <c r="S314" t="n">
+        <v>6</v>
+      </c>
+      <c r="T314" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U314" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V314" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W314" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X314" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB314" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC314" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD314" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE314" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF314" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG314" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH314" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI314" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ314" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK314" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL314" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM314" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN314" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO314" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP314" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ314" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AR314" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS314" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT314" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU314" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV314" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW314" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX314" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY314" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ314" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA314" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB314" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC314" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD314" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE314" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF314" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG314" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH314" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI314" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ314" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK314" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK314"/>
+  <dimension ref="A1:BK315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT19" t="n">
         <v>0.82</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT28" t="n">
         <v>1.29</v>
@@ -8008,7 +8008,7 @@
         <v>0.76</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU37" t="n">
         <v>2.29</v>
@@ -9835,7 +9835,7 @@
         <v>0.41</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU46" t="n">
         <v>1.6</v>
@@ -11456,7 +11456,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT54" t="n">
         <v>2.06</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT62" t="n">
         <v>1.28</v>
@@ -15113,7 +15113,7 @@
         <v>2.28</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU72" t="n">
         <v>1.9</v>
@@ -15516,7 +15516,7 @@
         <v>1.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT74" t="n">
         <v>0.76</v>
@@ -17955,7 +17955,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU86" t="n">
         <v>1.48</v>
@@ -19170,7 +19170,7 @@
         <v>1.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT92" t="n">
         <v>1.18</v>
@@ -21812,7 +21812,7 @@
         <v>1.53</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU105" t="n">
         <v>1.47</v>
@@ -24245,7 +24245,7 @@
         <v>0.83</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT117" t="n">
         <v>0.65</v>
@@ -25666,10 +25666,10 @@
         <v>2.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU124" t="n">
         <v>1.71</v>
@@ -29726,7 +29726,7 @@
         <v>0.86</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT144" t="n">
         <v>1.41</v>
@@ -31556,7 +31556,7 @@
         <v>1.29</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU153" t="n">
         <v>1.82</v>
@@ -32977,7 +32977,7 @@
         <v>1</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU160" t="n">
         <v>1.37</v>
@@ -34598,7 +34598,7 @@
         <v>1.56</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT168" t="n">
         <v>1.56</v>
@@ -37849,7 +37849,7 @@
         <v>1.56</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU184" t="n">
         <v>1.72</v>
@@ -40079,7 +40079,7 @@
         <v>1.4</v>
       </c>
       <c r="AS195" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT195" t="n">
         <v>1.28</v>
@@ -42721,7 +42721,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU208" t="n">
         <v>1.67</v>
@@ -43936,7 +43936,7 @@
         <v>1.55</v>
       </c>
       <c r="AS214" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT214" t="n">
         <v>1.28</v>
@@ -44345,7 +44345,7 @@
         <v>1.89</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU216" t="n">
         <v>1.85</v>
@@ -46578,7 +46578,7 @@
         <v>1.59</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU227" t="n">
         <v>1.9</v>
@@ -46778,7 +46778,7 @@
         <v>0.92</v>
       </c>
       <c r="AS228" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT228" t="n">
         <v>0.71</v>
@@ -51247,7 +51247,7 @@
         <v>1.29</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU250" t="n">
         <v>1.34</v>
@@ -51447,7 +51447,7 @@
         <v>0.54</v>
       </c>
       <c r="AS251" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT251" t="n">
         <v>0.59</v>
@@ -53886,7 +53886,7 @@
         <v>1.78</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU263" t="n">
         <v>1.83</v>
@@ -54898,7 +54898,7 @@
         <v>1.36</v>
       </c>
       <c r="AS268" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT268" t="n">
         <v>1.47</v>
@@ -58755,7 +58755,7 @@
         <v>1.07</v>
       </c>
       <c r="AS287" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT287" t="n">
         <v>1.22</v>
@@ -58961,7 +58961,7 @@
         <v>1.83</v>
       </c>
       <c r="AT288" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU288" t="n">
         <v>1.68</v>
@@ -60785,7 +60785,7 @@
         <v>0.88</v>
       </c>
       <c r="AS297" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT297" t="n">
         <v>0.82</v>
@@ -61600,7 +61600,7 @@
         <v>1.53</v>
       </c>
       <c r="AT301" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU301" t="n">
         <v>1.68</v>
@@ -64275,22 +64275,225 @@
         <v>2.7</v>
       </c>
       <c r="BF314" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG314" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH314" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI314" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ314" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK314" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="n">
+        <v>5962954</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E315" s="2" t="n">
+        <v>45053.5625</v>
+      </c>
+      <c r="F315" t="n">
+        <v>2</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>Royal Antwerp FC</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>KRC Genk</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>1</v>
+      </c>
+      <c r="J315" t="n">
+        <v>1</v>
+      </c>
+      <c r="K315" t="n">
+        <v>2</v>
+      </c>
+      <c r="L315" t="n">
+        <v>2</v>
+      </c>
+      <c r="M315" t="n">
+        <v>1</v>
+      </c>
+      <c r="N315" t="n">
         <v>3</v>
       </c>
-      <c r="BG314" t="n">
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>['45+2', '52']</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q315" t="n">
+        <v>2</v>
+      </c>
+      <c r="R315" t="n">
+        <v>5</v>
+      </c>
+      <c r="S315" t="n">
         <v>7</v>
       </c>
-      <c r="BH314" t="n">
+      <c r="T315" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U315" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V315" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W315" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X315" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD315" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE315" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF315" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG315" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH315" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI315" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ315" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK315" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL315" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM315" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN315" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO315" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP315" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ315" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AR315" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS315" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AT315" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU315" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV315" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW315" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX315" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AY315" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ315" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BA315" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB315" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC315" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD315" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE315" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF315" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG315" t="n">
         <v>3</v>
       </c>
-      <c r="BI314" t="n">
-        <v>8</v>
-      </c>
-      <c r="BJ314" t="n">
+      <c r="BH315" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI315" t="n">
         <v>6</v>
       </c>
-      <c r="BK314" t="n">
-        <v>15</v>
+      <c r="BJ315" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK315" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK319"/>
+  <dimension ref="A1:BK321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT15" t="n">
         <v>1.18</v>
@@ -3745,7 +3745,7 @@
         <v>2.56</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>1.79</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU25" t="n">
         <v>1.02</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT26" t="n">
         <v>1.26</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU30" t="n">
         <v>2.43</v>
@@ -8617,7 +8617,7 @@
         <v>2.56</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU40" t="n">
         <v>2.52</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT50" t="n">
         <v>1.89</v>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU51" t="n">
         <v>1.45</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT53" t="n">
         <v>0.71</v>
@@ -11865,7 +11865,7 @@
         <v>2</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU56" t="n">
         <v>2.27</v>
@@ -13692,7 +13692,7 @@
         <v>1.29</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU65" t="n">
         <v>1.42</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT70" t="n">
         <v>1.41</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT73" t="n">
         <v>0.82</v>
@@ -17749,7 +17749,7 @@
         <v>0.5</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT85" t="n">
         <v>0.82</v>
@@ -18561,10 +18561,10 @@
         <v>0</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU89" t="n">
         <v>1.81</v>
@@ -20594,7 +20594,7 @@
         <v>1.53</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU99" t="n">
         <v>1.74</v>
@@ -20797,7 +20797,7 @@
         <v>2.32</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU100" t="n">
         <v>1.79</v>
@@ -20997,7 +20997,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT101" t="n">
         <v>0.76</v>
@@ -22215,7 +22215,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT107" t="n">
         <v>0.59</v>
@@ -23436,7 +23436,7 @@
         <v>0.41</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU113" t="n">
         <v>1.28</v>
@@ -24045,7 +24045,7 @@
         <v>1.59</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU116" t="n">
         <v>1.61</v>
@@ -25869,7 +25869,7 @@
         <v>1.43</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT125" t="n">
         <v>0.76</v>
@@ -26684,7 +26684,7 @@
         <v>0.76</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU129" t="n">
         <v>1.37</v>
@@ -26884,7 +26884,7 @@
         <v>1.29</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT130" t="n">
         <v>1.18</v>
@@ -27090,7 +27090,7 @@
         <v>1</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU131" t="n">
         <v>1.33</v>
@@ -29120,7 +29120,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU141" t="n">
         <v>1.86</v>
@@ -29320,7 +29320,7 @@
         <v>1.86</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT142" t="n">
         <v>1.21</v>
@@ -30335,7 +30335,7 @@
         <v>0.63</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT147" t="n">
         <v>0.65</v>
@@ -30744,7 +30744,7 @@
         <v>1.29</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU149" t="n">
         <v>1.59</v>
@@ -32162,10 +32162,10 @@
         <v>1.5</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU156" t="n">
         <v>1.8</v>
@@ -32368,7 +32368,7 @@
         <v>1.59</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU157" t="n">
         <v>1.8</v>
@@ -33583,7 +33583,7 @@
         <v>1.63</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT163" t="n">
         <v>1.89</v>
@@ -35613,7 +35613,7 @@
         <v>1.3</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT173" t="n">
         <v>1.29</v>
@@ -35819,7 +35819,7 @@
         <v>0.41</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU174" t="n">
         <v>1.17</v>
@@ -36831,7 +36831,7 @@
         <v>1.11</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT179" t="n">
         <v>0.82</v>
@@ -37240,7 +37240,7 @@
         <v>1.53</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU181" t="n">
         <v>1.52</v>
@@ -37846,7 +37846,7 @@
         <v>2.33</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT184" t="n">
         <v>1.68</v>
@@ -38861,7 +38861,7 @@
         <v>1.33</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT189" t="n">
         <v>1.47</v>
@@ -39676,7 +39676,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU193" t="n">
         <v>1.67</v>
@@ -40082,7 +40082,7 @@
         <v>2.47</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU195" t="n">
         <v>1.72</v>
@@ -41094,7 +41094,7 @@
         <v>0.4</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT200" t="n">
         <v>0.59</v>
@@ -43127,7 +43127,7 @@
         <v>1.68</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU210" t="n">
         <v>1.69</v>
@@ -44342,7 +44342,7 @@
         <v>2.27</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT216" t="n">
         <v>1.68</v>
@@ -44751,7 +44751,7 @@
         <v>1.53</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU218" t="n">
         <v>1.82</v>
@@ -45357,7 +45357,7 @@
         <v>1.42</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT221" t="n">
         <v>1.63</v>
@@ -47390,7 +47390,7 @@
         <v>2.32</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU231" t="n">
         <v>1.85</v>
@@ -47793,7 +47793,7 @@
         <v>1.23</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT233" t="n">
         <v>1.29</v>
@@ -48811,7 +48811,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU238" t="n">
         <v>1.58</v>
@@ -49214,7 +49214,7 @@
         <v>2.08</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT240" t="n">
         <v>2.06</v>
@@ -49826,7 +49826,7 @@
         <v>1.29</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU243" t="n">
         <v>1.74</v>
@@ -51650,7 +51650,7 @@
         <v>1.38</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT252" t="n">
         <v>1.41</v>
@@ -52462,7 +52462,7 @@
         <v>1</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT256" t="n">
         <v>0.82</v>
@@ -53074,7 +53074,7 @@
         <v>2</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU259" t="n">
         <v>1.95</v>
@@ -53683,7 +53683,7 @@
         <v>1.29</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU262" t="n">
         <v>1.77</v>
@@ -55507,7 +55507,7 @@
         <v>0.79</v>
       </c>
       <c r="AS271" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT271" t="n">
         <v>0.71</v>
@@ -56116,7 +56116,7 @@
         <v>1.47</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT274" t="n">
         <v>1.47</v>
@@ -56525,7 +56525,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU276" t="n">
         <v>1.67</v>
@@ -58349,7 +58349,7 @@
         <v>2</v>
       </c>
       <c r="AS285" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT285" t="n">
         <v>2.06</v>
@@ -58758,7 +58758,7 @@
         <v>2.47</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU287" t="n">
         <v>1.76</v>
@@ -60176,7 +60176,7 @@
         <v>1.38</v>
       </c>
       <c r="AS294" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT294" t="n">
         <v>1.21</v>
@@ -61803,7 +61803,7 @@
         <v>0.76</v>
       </c>
       <c r="AT302" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU302" t="n">
         <v>1.45</v>
@@ -62209,7 +62209,7 @@
         <v>1.53</v>
       </c>
       <c r="AT304" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU304" t="n">
         <v>1.71</v>
@@ -62409,7 +62409,7 @@
         <v>0.5</v>
       </c>
       <c r="AS305" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT305" t="n">
         <v>0.65</v>
@@ -63018,7 +63018,7 @@
         <v>1.35</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT308" t="n">
         <v>1.26</v>
@@ -63224,7 +63224,7 @@
         <v>1.68</v>
       </c>
       <c r="AT309" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU309" t="n">
         <v>1.82</v>
@@ -64236,10 +64236,10 @@
         <v>1.12</v>
       </c>
       <c r="AS314" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT314" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU314" t="n">
         <v>1.67</v>
@@ -65306,6 +65306,412 @@
       </c>
       <c r="BK319" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" t="n">
+        <v>5962959</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E320" s="2" t="n">
+        <v>45066.55208333334</v>
+      </c>
+      <c r="F320" t="n">
+        <v>4</v>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>KVC Westerlo</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Standard Liège</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>2</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0</v>
+      </c>
+      <c r="K320" t="n">
+        <v>2</v>
+      </c>
+      <c r="L320" t="n">
+        <v>3</v>
+      </c>
+      <c r="M320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N320" t="n">
+        <v>3</v>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>['4', '30', '81']</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q320" t="n">
+        <v>2</v>
+      </c>
+      <c r="R320" t="n">
+        <v>5</v>
+      </c>
+      <c r="S320" t="n">
+        <v>7</v>
+      </c>
+      <c r="T320" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U320" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V320" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W320" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X320" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y320" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Z320" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA320" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB320" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC320" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD320" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE320" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF320" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG320" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH320" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI320" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ320" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK320" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL320" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM320" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN320" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO320" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP320" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ320" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR320" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS320" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT320" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU320" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV320" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW320" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX320" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY320" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ320" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BA320" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB320" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC320" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD320" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE320" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF320" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG320" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH320" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI320" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ320" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK320" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" t="n">
+        <v>5962960</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E321" s="2" t="n">
+        <v>45066.65625</v>
+      </c>
+      <c r="F321" t="n">
+        <v>4</v>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>KAA Gent</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>0</v>
+      </c>
+      <c r="J321" t="n">
+        <v>1</v>
+      </c>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="n">
+        <v>2</v>
+      </c>
+      <c r="M321" t="n">
+        <v>2</v>
+      </c>
+      <c r="N321" t="n">
+        <v>4</v>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>['49', '85']</t>
+        </is>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>['18', '70']</t>
+        </is>
+      </c>
+      <c r="Q321" t="n">
+        <v>4</v>
+      </c>
+      <c r="R321" t="n">
+        <v>3</v>
+      </c>
+      <c r="S321" t="n">
+        <v>7</v>
+      </c>
+      <c r="T321" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U321" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V321" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W321" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X321" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y321" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z321" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA321" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB321" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC321" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD321" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE321" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF321" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG321" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH321" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI321" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ321" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK321" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL321" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM321" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN321" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO321" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP321" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AQ321" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR321" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS321" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AT321" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU321" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV321" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW321" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX321" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AY321" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ321" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA321" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB321" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC321" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD321" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE321" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF321" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG321" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH321" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI321" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ321" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK321" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK321"/>
+  <dimension ref="A1:BK323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>1.29</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT7" t="n">
         <v>1.68</v>
@@ -2121,7 +2121,7 @@
         <v>1.59</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AT16" t="n">
         <v>1.21</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT20" t="n">
         <v>0.82</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AT21" t="n">
         <v>0.71</v>
@@ -5369,7 +5369,7 @@
         <v>1.59</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AU24" t="n">
         <v>1.52</v>
@@ -7602,7 +7602,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AU35" t="n">
         <v>1.92</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AT40" t="n">
         <v>1.21</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT41" t="n">
         <v>0.82</v>
@@ -10647,7 +10647,7 @@
         <v>1.84</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AU50" t="n">
         <v>1.72</v>
@@ -11459,7 +11459,7 @@
         <v>2.47</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AU54" t="n">
         <v>2</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT56" t="n">
         <v>1.21</v>
@@ -12065,7 +12065,7 @@
         <v>1.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AT57" t="n">
         <v>1.18</v>
@@ -13489,7 +13489,7 @@
         <v>0.76</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AU64" t="n">
         <v>1.71</v>
@@ -14910,7 +14910,7 @@
         <v>1.68</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AU71" t="n">
         <v>1.89</v>
@@ -16531,7 +16531,7 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AT79" t="n">
         <v>1.63</v>
@@ -16737,7 +16737,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AU80" t="n">
         <v>1.97</v>
@@ -17549,7 +17549,7 @@
         <v>1.53</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AU84" t="n">
         <v>1.57</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT87" t="n">
         <v>0.59</v>
@@ -18767,7 +18767,7 @@
         <v>1</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AU90" t="n">
         <v>1.38</v>
@@ -19373,7 +19373,7 @@
         <v>1.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AT93" t="n">
         <v>0.82</v>
@@ -19982,7 +19982,7 @@
         <v>0.6</v>
       </c>
       <c r="AS96" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT96" t="n">
         <v>1.26</v>
@@ -22015,7 +22015,7 @@
         <v>1.79</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AU106" t="n">
         <v>1.67</v>
@@ -22624,7 +22624,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AU109" t="n">
         <v>1.51</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AT112" t="n">
         <v>1.26</v>
@@ -23839,7 +23839,7 @@
         <v>1.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT115" t="n">
         <v>1.18</v>
@@ -26478,7 +26478,7 @@
         <v>0.67</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AT128" t="n">
         <v>0.59</v>
@@ -27290,7 +27290,7 @@
         <v>0.71</v>
       </c>
       <c r="AS132" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT132" t="n">
         <v>0.65</v>
@@ -27699,7 +27699,7 @@
         <v>0.41</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AU134" t="n">
         <v>1.23</v>
@@ -28105,7 +28105,7 @@
         <v>1.53</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AU136" t="n">
         <v>1.62</v>
@@ -28305,7 +28305,7 @@
         <v>1.29</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AT137" t="n">
         <v>1.47</v>
@@ -31147,10 +31147,10 @@
         <v>1.71</v>
       </c>
       <c r="AS151" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AU151" t="n">
         <v>2.16</v>
@@ -31353,7 +31353,7 @@
         <v>1.79</v>
       </c>
       <c r="AT152" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AU152" t="n">
         <v>1.57</v>
@@ -32568,7 +32568,7 @@
         <v>1.33</v>
       </c>
       <c r="AS158" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT158" t="n">
         <v>1.29</v>
@@ -33586,7 +33586,7 @@
         <v>1.63</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AU163" t="n">
         <v>1.73</v>
@@ -34801,7 +34801,7 @@
         <v>1.63</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AT169" t="n">
         <v>1.21</v>
@@ -35210,7 +35210,7 @@
         <v>1.29</v>
       </c>
       <c r="AT171" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AU171" t="n">
         <v>1.79</v>
@@ -36425,7 +36425,7 @@
         <v>0.67</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AT177" t="n">
         <v>0.82</v>
@@ -36628,7 +36628,7 @@
         <v>1.11</v>
       </c>
       <c r="AS178" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT178" t="n">
         <v>1.41</v>
@@ -37037,7 +37037,7 @@
         <v>2.32</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AU180" t="n">
         <v>1.77</v>
@@ -38052,7 +38052,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AU185" t="n">
         <v>1.64</v>
@@ -38255,7 +38255,7 @@
         <v>1.68</v>
       </c>
       <c r="AT186" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AU186" t="n">
         <v>1.79</v>
@@ -40485,7 +40485,7 @@
         <v>1.3</v>
       </c>
       <c r="AS197" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT197" t="n">
         <v>1.47</v>
@@ -41706,7 +41706,7 @@
         <v>1.53</v>
       </c>
       <c r="AT203" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AU203" t="n">
         <v>1.53</v>
@@ -41909,7 +41909,7 @@
         <v>1.29</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AU204" t="n">
         <v>1.75</v>
@@ -42515,7 +42515,7 @@
         <v>1.18</v>
       </c>
       <c r="AS207" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AT207" t="n">
         <v>0.76</v>
@@ -44951,10 +44951,10 @@
         <v>2.17</v>
       </c>
       <c r="AS219" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT219" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AU219" t="n">
         <v>2.04</v>
@@ -45763,10 +45763,10 @@
         <v>1.5</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AU223" t="n">
         <v>2.05</v>
@@ -49011,7 +49011,7 @@
         <v>0.54</v>
       </c>
       <c r="AS239" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AT239" t="n">
         <v>0.65</v>
@@ -49217,7 +49217,7 @@
         <v>1.63</v>
       </c>
       <c r="AT240" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AU240" t="n">
         <v>1.76</v>
@@ -49417,7 +49417,7 @@
         <v>1.38</v>
       </c>
       <c r="AS241" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT241" t="n">
         <v>1.63</v>
@@ -49623,7 +49623,7 @@
         <v>1.53</v>
       </c>
       <c r="AT242" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AU242" t="n">
         <v>1.74</v>
@@ -52871,7 +52871,7 @@
         <v>0.41</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AU258" t="n">
         <v>1.15</v>
@@ -53071,7 +53071,7 @@
         <v>1.36</v>
       </c>
       <c r="AS259" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT259" t="n">
         <v>1.21</v>
@@ -53477,10 +53477,10 @@
         <v>1.93</v>
       </c>
       <c r="AS261" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AT261" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AU261" t="n">
         <v>1.98</v>
@@ -55713,7 +55713,7 @@
         <v>0.76</v>
       </c>
       <c r="AT272" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AU272" t="n">
         <v>1.49</v>
@@ -56725,7 +56725,7 @@
         <v>1.27</v>
       </c>
       <c r="AS277" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AT277" t="n">
         <v>1.29</v>
@@ -57537,7 +57537,7 @@
         <v>0.87</v>
       </c>
       <c r="AS281" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT281" t="n">
         <v>0.76</v>
@@ -58352,7 +58352,7 @@
         <v>1.84</v>
       </c>
       <c r="AT285" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AU285" t="n">
         <v>1.82</v>
@@ -60379,7 +60379,7 @@
         <v>1.5</v>
       </c>
       <c r="AS295" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AT295" t="n">
         <v>1.41</v>
@@ -61397,7 +61397,7 @@
         <v>1.29</v>
       </c>
       <c r="AT300" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AU300" t="n">
         <v>1.41</v>
@@ -62612,7 +62612,7 @@
         <v>0.75</v>
       </c>
       <c r="AS306" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT306" t="n">
         <v>0.71</v>
@@ -62818,7 +62818,7 @@
         <v>1</v>
       </c>
       <c r="AT307" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AU307" t="n">
         <v>1.49</v>
@@ -63424,7 +63424,7 @@
         <v>1.35</v>
       </c>
       <c r="AS310" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AT310" t="n">
         <v>1.21</v>
@@ -63630,7 +63630,7 @@
         <v>2.32</v>
       </c>
       <c r="AT311" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AU311" t="n">
         <v>1.82</v>
@@ -63830,10 +63830,10 @@
         <v>2</v>
       </c>
       <c r="AS312" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT312" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AU312" t="n">
         <v>2.06</v>
@@ -65712,6 +65712,412 @@
       </c>
       <c r="BK321" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B322" t="n">
+        <v>5962961</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E322" s="2" t="n">
+        <v>45067.35416666666</v>
+      </c>
+      <c r="F322" t="n">
+        <v>4</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Royal Antwerp FC</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>0</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0</v>
+      </c>
+      <c r="L322" t="n">
+        <v>2</v>
+      </c>
+      <c r="M322" t="n">
+        <v>0</v>
+      </c>
+      <c r="N322" t="n">
+        <v>2</v>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>['51', '62']</t>
+        </is>
+      </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q322" t="n">
+        <v>3</v>
+      </c>
+      <c r="R322" t="n">
+        <v>4</v>
+      </c>
+      <c r="S322" t="n">
+        <v>7</v>
+      </c>
+      <c r="T322" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U322" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V322" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W322" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X322" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y322" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z322" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA322" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB322" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC322" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AD322" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE322" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AF322" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG322" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH322" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI322" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ322" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK322" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL322" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM322" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN322" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO322" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP322" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ322" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR322" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS322" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AT322" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AU322" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV322" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW322" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX322" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY322" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ322" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BA322" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB322" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC322" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD322" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE322" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF322" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG322" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH322" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI322" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ322" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK322" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B323" t="n">
+        <v>5962962</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E323" s="2" t="n">
+        <v>45067.5625</v>
+      </c>
+      <c r="F323" t="n">
+        <v>4</v>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>KRC Genk</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Union Saint-Gilloise</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>1</v>
+      </c>
+      <c r="J323" t="n">
+        <v>1</v>
+      </c>
+      <c r="K323" t="n">
+        <v>2</v>
+      </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="n">
+        <v>1</v>
+      </c>
+      <c r="N323" t="n">
+        <v>2</v>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P323" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q323" t="n">
+        <v>2</v>
+      </c>
+      <c r="R323" t="n">
+        <v>4</v>
+      </c>
+      <c r="S323" t="n">
+        <v>6</v>
+      </c>
+      <c r="T323" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U323" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V323" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="W323" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X323" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Y323" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Z323" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA323" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AB323" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC323" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AD323" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE323" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF323" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG323" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH323" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI323" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ323" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK323" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL323" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM323" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN323" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO323" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP323" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ323" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AR323" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AS323" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AT323" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU323" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AV323" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW323" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX323" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY323" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ323" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA323" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB323" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC323" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD323" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE323" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF323" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG323" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH323" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI323" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ323" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK323" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -66102,19 +66102,19 @@
         <v>2.7</v>
       </c>
       <c r="BF323" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG323" t="n">
         <v>5</v>
       </c>
       <c r="BH323" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI323" t="n">
         <v>3</v>
       </c>
       <c r="BJ323" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK323" t="n">
         <v>8</v>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK323"/>
+  <dimension ref="A1:BK327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.29</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="AT19" t="n">
         <v>0.82</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT20" t="n">
         <v>0.82</v>
@@ -5369,7 +5369,7 @@
         <v>1.59</v>
       </c>
       <c r="AT24" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AU24" t="n">
         <v>1.52</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AU25" t="n">
         <v>1.02</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="AT28" t="n">
         <v>1.29</v>
@@ -6384,7 +6384,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU29" t="n">
         <v>1.58</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT30" t="n">
         <v>1.21</v>
@@ -8008,7 +8008,7 @@
         <v>0.76</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AU37" t="n">
         <v>2.29</v>
@@ -8617,7 +8617,7 @@
         <v>2.47</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AU40" t="n">
         <v>2.52</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT41" t="n">
         <v>0.82</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AT43" t="n">
         <v>1.29</v>
@@ -9835,7 +9835,7 @@
         <v>0.41</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AU46" t="n">
         <v>1.6</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT53" t="n">
         <v>0.71</v>
@@ -11456,10 +11456,10 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="AT54" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AU54" t="n">
         <v>2</v>
@@ -11662,7 +11662,7 @@
         <v>1.29</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU55" t="n">
         <v>1.58</v>
@@ -11862,10 +11862,10 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AU56" t="n">
         <v>2.27</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AT60" t="n">
         <v>0.65</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="AT62" t="n">
         <v>1.26</v>
@@ -13286,7 +13286,7 @@
         <v>1.53</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU63" t="n">
         <v>1.89</v>
@@ -13489,7 +13489,7 @@
         <v>0.76</v>
       </c>
       <c r="AT64" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AU64" t="n">
         <v>1.71</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT70" t="n">
         <v>1.41</v>
@@ -15113,7 +15113,7 @@
         <v>2.32</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AU72" t="n">
         <v>1.9</v>
@@ -15516,7 +15516,7 @@
         <v>1.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="AT74" t="n">
         <v>0.76</v>
@@ -16534,7 +16534,7 @@
         <v>2.47</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU79" t="n">
         <v>2.11</v>
@@ -16737,7 +16737,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT80" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AU80" t="n">
         <v>1.97</v>
@@ -16937,7 +16937,7 @@
         <v>2.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AT81" t="n">
         <v>1.21</v>
@@ -17343,7 +17343,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AT83" t="n">
         <v>0.76</v>
@@ -17549,7 +17549,7 @@
         <v>1.53</v>
       </c>
       <c r="AT84" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AU84" t="n">
         <v>1.57</v>
@@ -17749,7 +17749,7 @@
         <v>0.5</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT85" t="n">
         <v>0.82</v>
@@ -17955,7 +17955,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AU86" t="n">
         <v>1.48</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT87" t="n">
         <v>0.59</v>
@@ -18564,7 +18564,7 @@
         <v>1.84</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AU89" t="n">
         <v>1.81</v>
@@ -19170,7 +19170,7 @@
         <v>1.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="AT92" t="n">
         <v>1.18</v>
@@ -19982,7 +19982,7 @@
         <v>0.6</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT96" t="n">
         <v>1.26</v>
@@ -20391,7 +20391,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU98" t="n">
         <v>1.83</v>
@@ -20797,7 +20797,7 @@
         <v>2.32</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AU100" t="n">
         <v>1.79</v>
@@ -20997,7 +20997,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT101" t="n">
         <v>0.76</v>
@@ -21812,7 +21812,7 @@
         <v>1.53</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AU105" t="n">
         <v>1.47</v>
@@ -22012,7 +22012,7 @@
         <v>2.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AT106" t="n">
         <v>1.79</v>
@@ -22624,7 +22624,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT109" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AU109" t="n">
         <v>1.51</v>
@@ -23436,7 +23436,7 @@
         <v>0.41</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AU113" t="n">
         <v>1.28</v>
@@ -23639,7 +23639,7 @@
         <v>2.32</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU114" t="n">
         <v>1.74</v>
@@ -23839,7 +23839,7 @@
         <v>1.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT115" t="n">
         <v>1.18</v>
@@ -24245,7 +24245,7 @@
         <v>0.83</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="AT117" t="n">
         <v>0.65</v>
@@ -25666,10 +25666,10 @@
         <v>2.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AU124" t="n">
         <v>1.71</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AT126" t="n">
         <v>1.41</v>
@@ -26884,7 +26884,7 @@
         <v>1.29</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT130" t="n">
         <v>1.18</v>
@@ -27090,7 +27090,7 @@
         <v>1</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AU131" t="n">
         <v>1.33</v>
@@ -27290,7 +27290,7 @@
         <v>0.71</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT132" t="n">
         <v>0.65</v>
@@ -27699,7 +27699,7 @@
         <v>0.41</v>
       </c>
       <c r="AT134" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AU134" t="n">
         <v>1.23</v>
@@ -27902,7 +27902,7 @@
         <v>1.53</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU135" t="n">
         <v>1.61</v>
@@ -29726,7 +29726,7 @@
         <v>0.86</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="AT144" t="n">
         <v>1.41</v>
@@ -30335,7 +30335,7 @@
         <v>0.63</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT147" t="n">
         <v>0.65</v>
@@ -30744,7 +30744,7 @@
         <v>1.29</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AU149" t="n">
         <v>1.59</v>
@@ -31147,7 +31147,7 @@
         <v>1.71</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT151" t="n">
         <v>1.79</v>
@@ -31350,10 +31350,10 @@
         <v>2</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AT152" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AU152" t="n">
         <v>1.57</v>
@@ -31556,7 +31556,7 @@
         <v>1.29</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AU153" t="n">
         <v>1.82</v>
@@ -31759,7 +31759,7 @@
         <v>1</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU154" t="n">
         <v>1.39</v>
@@ -32368,7 +32368,7 @@
         <v>1.59</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AU157" t="n">
         <v>1.8</v>
@@ -32568,7 +32568,7 @@
         <v>1.33</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT158" t="n">
         <v>1.29</v>
@@ -32977,7 +32977,7 @@
         <v>1</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AU160" t="n">
         <v>1.37</v>
@@ -33583,7 +33583,7 @@
         <v>1.63</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT163" t="n">
         <v>1.79</v>
@@ -33786,7 +33786,7 @@
         <v>1.67</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AT164" t="n">
         <v>1.18</v>
@@ -34598,10 +34598,10 @@
         <v>1.56</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU168" t="n">
         <v>1.72</v>
@@ -35210,7 +35210,7 @@
         <v>1.29</v>
       </c>
       <c r="AT171" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AU171" t="n">
         <v>1.79</v>
@@ -35613,7 +35613,7 @@
         <v>1.3</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT173" t="n">
         <v>1.29</v>
@@ -36628,7 +36628,7 @@
         <v>1.11</v>
       </c>
       <c r="AS178" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT178" t="n">
         <v>1.41</v>
@@ -37240,7 +37240,7 @@
         <v>1.53</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AU181" t="n">
         <v>1.52</v>
@@ -37643,7 +37643,7 @@
         <v>0.44</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AT183" t="n">
         <v>0.59</v>
@@ -37846,10 +37846,10 @@
         <v>2.33</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AU184" t="n">
         <v>1.72</v>
@@ -38255,7 +38255,7 @@
         <v>1.68</v>
       </c>
       <c r="AT186" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AU186" t="n">
         <v>1.79</v>
@@ -39676,7 +39676,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AU193" t="n">
         <v>1.67</v>
@@ -40079,7 +40079,7 @@
         <v>1.4</v>
       </c>
       <c r="AS195" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="AT195" t="n">
         <v>1.21</v>
@@ -40485,7 +40485,7 @@
         <v>1.3</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT197" t="n">
         <v>1.47</v>
@@ -40691,7 +40691,7 @@
         <v>1.29</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU198" t="n">
         <v>1.54</v>
@@ -40891,7 +40891,7 @@
         <v>1</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AT199" t="n">
         <v>0.71</v>
@@ -41094,7 +41094,7 @@
         <v>0.4</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT200" t="n">
         <v>0.59</v>
@@ -41706,7 +41706,7 @@
         <v>1.53</v>
       </c>
       <c r="AT203" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AU203" t="n">
         <v>1.53</v>
@@ -42112,7 +42112,7 @@
         <v>1.68</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU205" t="n">
         <v>1.71</v>
@@ -42721,7 +42721,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AU208" t="n">
         <v>1.67</v>
@@ -43936,7 +43936,7 @@
         <v>1.55</v>
       </c>
       <c r="AS214" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="AT214" t="n">
         <v>1.21</v>
@@ -44345,7 +44345,7 @@
         <v>1.84</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AU216" t="n">
         <v>1.85</v>
@@ -44751,7 +44751,7 @@
         <v>1.53</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AU218" t="n">
         <v>1.82</v>
@@ -44951,10 +44951,10 @@
         <v>2.17</v>
       </c>
       <c r="AS219" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT219" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AU219" t="n">
         <v>2.04</v>
@@ -45357,10 +45357,10 @@
         <v>1.42</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU221" t="n">
         <v>1.79</v>
@@ -46169,7 +46169,7 @@
         <v>0.83</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AT225" t="n">
         <v>0.82</v>
@@ -46578,7 +46578,7 @@
         <v>1.59</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AU227" t="n">
         <v>1.9</v>
@@ -46778,7 +46778,7 @@
         <v>0.92</v>
       </c>
       <c r="AS228" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="AT228" t="n">
         <v>0.71</v>
@@ -48811,7 +48811,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AU238" t="n">
         <v>1.58</v>
@@ -49214,10 +49214,10 @@
         <v>2.08</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT240" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AU240" t="n">
         <v>1.76</v>
@@ -49417,10 +49417,10 @@
         <v>1.38</v>
       </c>
       <c r="AS241" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU241" t="n">
         <v>1.97</v>
@@ -51041,7 +51041,7 @@
         <v>1.38</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AT249" t="n">
         <v>1.26</v>
@@ -51247,7 +51247,7 @@
         <v>1.29</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AU250" t="n">
         <v>1.34</v>
@@ -51447,7 +51447,7 @@
         <v>0.54</v>
       </c>
       <c r="AS251" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="AT251" t="n">
         <v>0.59</v>
@@ -52462,7 +52462,7 @@
         <v>1</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT256" t="n">
         <v>0.82</v>
@@ -53071,7 +53071,7 @@
         <v>1.36</v>
       </c>
       <c r="AS259" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT259" t="n">
         <v>1.21</v>
@@ -53277,7 +53277,7 @@
         <v>0.76</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU260" t="n">
         <v>1.5</v>
@@ -53480,7 +53480,7 @@
         <v>2.47</v>
       </c>
       <c r="AT261" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AU261" t="n">
         <v>1.98</v>
@@ -53683,7 +53683,7 @@
         <v>1.29</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AU262" t="n">
         <v>1.77</v>
@@ -53886,7 +53886,7 @@
         <v>1.68</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AU263" t="n">
         <v>1.83</v>
@@ -54695,7 +54695,7 @@
         <v>0.71</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AT267" t="n">
         <v>0.82</v>
@@ -54898,7 +54898,7 @@
         <v>1.36</v>
       </c>
       <c r="AS268" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="AT268" t="n">
         <v>1.47</v>
@@ -56116,7 +56116,7 @@
         <v>1.47</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT274" t="n">
         <v>1.47</v>
@@ -56322,7 +56322,7 @@
         <v>0.41</v>
       </c>
       <c r="AT275" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU275" t="n">
         <v>1.14</v>
@@ -57537,7 +57537,7 @@
         <v>0.87</v>
       </c>
       <c r="AS281" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT281" t="n">
         <v>0.76</v>
@@ -58352,7 +58352,7 @@
         <v>1.84</v>
       </c>
       <c r="AT285" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AU285" t="n">
         <v>1.82</v>
@@ -58755,10 +58755,10 @@
         <v>1.07</v>
       </c>
       <c r="AS287" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AU287" t="n">
         <v>1.76</v>
@@ -58958,10 +58958,10 @@
         <v>2.07</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AT288" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AU288" t="n">
         <v>1.68</v>
@@ -59364,7 +59364,7 @@
         <v>1.56</v>
       </c>
       <c r="AS290" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AT290" t="n">
         <v>1.47</v>
@@ -60176,7 +60176,7 @@
         <v>1.38</v>
       </c>
       <c r="AS294" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT294" t="n">
         <v>1.21</v>
@@ -60585,7 +60585,7 @@
         <v>1.59</v>
       </c>
       <c r="AT296" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU296" t="n">
         <v>1.76</v>
@@ -60785,7 +60785,7 @@
         <v>0.88</v>
       </c>
       <c r="AS297" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="AT297" t="n">
         <v>0.82</v>
@@ -61600,7 +61600,7 @@
         <v>1.53</v>
       </c>
       <c r="AT301" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AU301" t="n">
         <v>1.68</v>
@@ -61803,7 +61803,7 @@
         <v>0.76</v>
       </c>
       <c r="AT302" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AU302" t="n">
         <v>1.45</v>
@@ -62612,7 +62612,7 @@
         <v>0.75</v>
       </c>
       <c r="AS306" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT306" t="n">
         <v>0.71</v>
@@ -62818,7 +62818,7 @@
         <v>1</v>
       </c>
       <c r="AT307" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AU307" t="n">
         <v>1.49</v>
@@ -63830,10 +63830,10 @@
         <v>2</v>
       </c>
       <c r="AS312" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT312" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AU312" t="n">
         <v>2.06</v>
@@ -64033,10 +64033,10 @@
         <v>1.47</v>
       </c>
       <c r="AS313" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AT313" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU313" t="n">
         <v>1.65</v>
@@ -64236,10 +64236,10 @@
         <v>1.12</v>
       </c>
       <c r="AS314" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT314" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AU314" t="n">
         <v>1.67</v>
@@ -64439,10 +64439,10 @@
         <v>1.88</v>
       </c>
       <c r="AS315" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="AT315" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AU315" t="n">
         <v>1.71</v>
@@ -64645,7 +64645,7 @@
         <v>1.68</v>
       </c>
       <c r="AT316" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU316" t="n">
         <v>1.78</v>
@@ -64845,7 +64845,7 @@
         <v>1.28</v>
       </c>
       <c r="AS317" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AT317" t="n">
         <v>1.26</v>
@@ -65048,7 +65048,7 @@
         <v>1.28</v>
       </c>
       <c r="AS318" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="AT318" t="n">
         <v>1.21</v>
@@ -65254,7 +65254,7 @@
         <v>2.32</v>
       </c>
       <c r="AT319" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AU319" t="n">
         <v>1.8</v>
@@ -65454,7 +65454,7 @@
         <v>1.28</v>
       </c>
       <c r="AS320" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT320" t="n">
         <v>1.21</v>
@@ -65660,7 +65660,7 @@
         <v>1.84</v>
       </c>
       <c r="AT321" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AU321" t="n">
         <v>1.79</v>
@@ -65860,7 +65860,7 @@
         <v>1.89</v>
       </c>
       <c r="AS322" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT322" t="n">
         <v>1.79</v>
@@ -66066,7 +66066,7 @@
         <v>2.47</v>
       </c>
       <c r="AT323" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AU323" t="n">
         <v>1.93</v>
@@ -66118,6 +66118,818 @@
       </c>
       <c r="BK323" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B324" t="n">
+        <v>5962963</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E324" s="2" t="n">
+        <v>45073.55208333334</v>
+      </c>
+      <c r="F324" t="n">
+        <v>5</v>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>KVC Westerlo</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>KAA Gent</t>
+        </is>
+      </c>
+      <c r="I324" t="n">
+        <v>1</v>
+      </c>
+      <c r="J324" t="n">
+        <v>1</v>
+      </c>
+      <c r="K324" t="n">
+        <v>2</v>
+      </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="n">
+        <v>3</v>
+      </c>
+      <c r="N324" t="n">
+        <v>4</v>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P324" t="inlineStr">
+        <is>
+          <t>['27', '75', '81']</t>
+        </is>
+      </c>
+      <c r="Q324" t="n">
+        <v>4</v>
+      </c>
+      <c r="R324" t="n">
+        <v>3</v>
+      </c>
+      <c r="S324" t="n">
+        <v>7</v>
+      </c>
+      <c r="T324" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U324" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V324" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W324" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X324" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Y324" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Z324" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA324" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB324" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC324" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD324" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE324" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF324" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG324" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="AH324" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI324" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ324" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK324" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL324" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM324" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AN324" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO324" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP324" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ324" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR324" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS324" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT324" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AU324" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV324" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW324" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX324" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AY324" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ324" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BA324" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB324" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC324" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD324" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE324" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF324" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG324" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH324" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI324" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ324" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK324" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B325" t="n">
+        <v>5962964</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E325" s="2" t="n">
+        <v>45073.65625</v>
+      </c>
+      <c r="F325" t="n">
+        <v>5</v>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>Standard Liège</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="I325" t="n">
+        <v>0</v>
+      </c>
+      <c r="J325" t="n">
+        <v>1</v>
+      </c>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="n">
+        <v>0</v>
+      </c>
+      <c r="M325" t="n">
+        <v>4</v>
+      </c>
+      <c r="N325" t="n">
+        <v>4</v>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P325" t="inlineStr">
+        <is>
+          <t>['7', '51', '64', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q325" t="n">
+        <v>6</v>
+      </c>
+      <c r="R325" t="n">
+        <v>7</v>
+      </c>
+      <c r="S325" t="n">
+        <v>13</v>
+      </c>
+      <c r="T325" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="U325" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V325" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="W325" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X325" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Y325" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Z325" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA325" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB325" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC325" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD325" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE325" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF325" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG325" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH325" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI325" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ325" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK325" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL325" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM325" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AN325" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO325" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP325" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ325" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AR325" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS325" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT325" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU325" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV325" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW325" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX325" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY325" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ325" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA325" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB325" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC325" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD325" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE325" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF325" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG325" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH325" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI325" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ325" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK325" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B326" t="n">
+        <v>5962965</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E326" s="2" t="n">
+        <v>45074.35416666666</v>
+      </c>
+      <c r="F326" t="n">
+        <v>5</v>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>Royal Antwerp FC</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Union Saint-Gilloise</t>
+        </is>
+      </c>
+      <c r="I326" t="n">
+        <v>1</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0</v>
+      </c>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="n">
+        <v>1</v>
+      </c>
+      <c r="N326" t="n">
+        <v>2</v>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P326" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q326" t="n">
+        <v>3</v>
+      </c>
+      <c r="R326" t="n">
+        <v>5</v>
+      </c>
+      <c r="S326" t="n">
+        <v>8</v>
+      </c>
+      <c r="T326" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U326" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V326" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W326" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X326" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y326" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z326" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA326" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB326" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC326" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD326" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE326" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF326" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG326" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH326" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI326" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ326" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK326" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AL326" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM326" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN326" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO326" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP326" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ326" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AR326" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS326" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT326" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AU326" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV326" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW326" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX326" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY326" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ326" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA326" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB326" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC326" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD326" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE326" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF326" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG326" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH326" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI326" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ326" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK326" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B327" t="n">
+        <v>5962966</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E327" s="2" t="n">
+        <v>45074.5625</v>
+      </c>
+      <c r="F327" t="n">
+        <v>5</v>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>KRC Genk</t>
+        </is>
+      </c>
+      <c r="I327" t="n">
+        <v>0</v>
+      </c>
+      <c r="J327" t="n">
+        <v>1</v>
+      </c>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="n">
+        <v>3</v>
+      </c>
+      <c r="N327" t="n">
+        <v>4</v>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>['12', '81', '86']</t>
+        </is>
+      </c>
+      <c r="Q327" t="n">
+        <v>7</v>
+      </c>
+      <c r="R327" t="n">
+        <v>1</v>
+      </c>
+      <c r="S327" t="n">
+        <v>8</v>
+      </c>
+      <c r="T327" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U327" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V327" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W327" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X327" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y327" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z327" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA327" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB327" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC327" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD327" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE327" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF327" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG327" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH327" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI327" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ327" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK327" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL327" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AM327" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AN327" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO327" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP327" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ327" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AR327" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS327" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AT327" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU327" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AV327" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW327" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX327" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY327" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ327" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA327" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB327" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC327" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD327" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE327" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF327" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG327" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH327" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI327" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ327" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK327" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
